--- a/artigos_IJDC/SelecaoFase1 - Lidia.xlsx
+++ b/artigos_IJDC/SelecaoFase1 - Lidia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Mestrado\slr\artigos_IJDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE402D21-F763-4CA4-B6B5-C1312D3615C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62096839-8B64-47FE-AB16-209E0449550B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1A65388C-AACB-4B7E-B60C-47E18581C927}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>type</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Critério de exclusão</t>
   </si>
   <si>
-    <t>Eliminado</t>
-  </si>
-  <si>
     <t>Criterios de exclusão</t>
   </si>
   <si>
@@ -82,10 +79,6 @@
   </si>
   <si>
     <t>Revisiting the Data Lifecycle with Big Data Curation</t>
-  </si>
-  <si>
-    <t>Using the DCC Lifecycle Model to Curate a Gene Expression
-Database: A Case Study</t>
   </si>
   <si>
     <t>Responding to the Call to Curate:
@@ -113,12 +106,18 @@
   <si>
     <t>Line Pouchard</t>
   </si>
+  <si>
+    <t>Using the DCC Lifecycle Model to Curate a Gene Expression Database: A Case Study</t>
+  </si>
+  <si>
+    <t>Aceito</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +128,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -155,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -164,6 +171,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7271E0F0-47A0-43BD-A095-D2B08052F9FE}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,94 +612,103 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>2015</v>
       </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>2009</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1"/>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
+    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6">
         <v>2007</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>2017</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -712,7 +733,7 @@
   <sheetData>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
